--- a/statement_excel.xlsx
+++ b/statement_excel.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C17" sqref="A1:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -495,13 +495,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12">
-        <v>44671</v>
+        <v>44648</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>-22232</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -509,13 +509,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12">
-        <v>44694</v>
+        <v>44671</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>-13875</v>
+        <v>-22232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -523,13 +523,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="11">
-        <v>44648</v>
+        <v>44681</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>450000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -537,13 +537,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="11">
-        <v>44681</v>
+        <v>44694</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
-        <v>300000</v>
+        <v>-13875</v>
       </c>
     </row>
     <row r="7" spans="1:4">

--- a/statement_excel.xlsx
+++ b/statement_excel.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="A1:D25"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
